--- a/output/within_species_scWheat-snWheat/cluster_deg_overlap_statistics_combined_best_hits.xlsx
+++ b/output/within_species_scWheat-snWheat/cluster_deg_overlap_statistics_combined_best_hits.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="tae_sc-to-tae_sn" sheetId="1" r:id="rId1"/>
+    <sheet name="wheat_sc-to-wheat_sn" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="48">
   <si>
-    <t>tae_sc cluster</t>
-  </si>
-  <si>
-    <t>tae_sn cluster</t>
+    <t>wheat_sc cluster</t>
+  </si>
+  <si>
+    <t>wheat_sn cluster</t>
   </si>
   <si>
     <t>number of matches</t>
@@ -46,12 +46,12 @@
     <t>matching genes 2</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
@@ -67,15 +67,15 @@
     <t>11</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -85,12 +85,12 @@
     <t>2</t>
   </si>
   <si>
+    <t>17</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -103,12 +103,12 @@
     <t>16</t>
   </si>
   <si>
+    <t>TraesCS1A03G0117100,TraesCS1D03G0105400,TraesCS2A03G0749000,TraesCS2A03G0920600,TraesCS2A03G1006000,TraesCS2B03G0825500,TraesCS2D03G0692900,TraesCS3A03G0429700,TraesCS3A03G0429900,TraesCS3B03G0507800,TraesCS3B03G0508400,TraesCS3B03G0508500,TraesCS3D03G0402300,TraesCS3D03G0402600,TraesCS3D03G0402800,TraesCS3D03G1192600,TraesCS5A03G0479300,TraesCS6A03G0661900,TraesCS6B03G0758700,TraesCS6B03G0815900,TraesCS6D03G0526000,TraesCS6D03G0550200,TraesCS6D03G0670000,TraesCS7A03G0413900,TraesCS7B03G0218800,TraesCS7D03G0401600</t>
+  </si>
+  <si>
     <t>TraesCS1D03G0042100,TraesCS3A03G0016400,TraesCS3D03G0013700,TraesCS5A03G0363500,TraesCS5A03G0580100,TraesCS5D03G0346300</t>
   </si>
   <si>
-    <t>TraesCS1A03G0117100,TraesCS1D03G0105400,TraesCS2A03G0749000,TraesCS2A03G0920600,TraesCS2A03G1006000,TraesCS2B03G0825500,TraesCS2D03G0692900,TraesCS3A03G0429700,TraesCS3A03G0429900,TraesCS3B03G0507800,TraesCS3B03G0508400,TraesCS3B03G0508500,TraesCS3D03G0402300,TraesCS3D03G0402600,TraesCS3D03G0402800,TraesCS3D03G1192600,TraesCS5A03G0479300,TraesCS6A03G0661900,TraesCS6B03G0758700,TraesCS6B03G0815900,TraesCS6D03G0526000,TraesCS6D03G0550200,TraesCS6D03G0670000,TraesCS7A03G0413900,TraesCS7B03G0218800,TraesCS7D03G0401600</t>
-  </si>
-  <si>
     <t>TraesCS1A03G0459700,TraesCS1A03G0526900,TraesCS1A03G0824700,TraesCS1A03G0853600,TraesCS1B03G0616100,TraesCS1B03G0987400,TraesCS1D03G0432000,TraesCS1D03G0508400,TraesCS1D03G0823500,TraesCS2A03G0132400,TraesCS2A03G0863000,TraesCS2A03G1051500,TraesCS2B03G0179700,TraesCS2B03G0509200,TraesCS2B03G0955500,TraesCS2B03G1176500,TraesCS2D03G0129500,TraesCS2D03G0803000,TraesCS2D03G0992400,TraesCS3A03G0446200,TraesCS3A03G0796600,TraesCS3B03G0523500,TraesCS3B03G0918400,TraesCS3B03G1202600,TraesCS3D03G0735900,TraesCS3D03G0969300,TraesCS4D03G0725400,TraesCS4D03G0742700,TraesCS5A03G0402700,TraesCS5D03G0889900,TraesCS7A03G1335600,TraesCS7D03G1262100</t>
   </si>
   <si>
@@ -124,15 +124,15 @@
     <t>TraesCS1A03G0483700,TraesCS1A03G0623200,TraesCS1A03G0623300,TraesCS1A03G1030600,TraesCS1B03G0625200,TraesCS1D03G0516200,TraesCS1D03G0584800,TraesCS1D03G0991800,TraesCS2A03G0741600,TraesCS2A03G0775400,TraesCS2B03G0368000,TraesCS2B03G0818100,TraesCS2B03G0856800,TraesCS2D03G0715400,TraesCS4B03G0741800,TraesCS4B03G0840800,TraesCS5A03G0505600,TraesCS6A03G0643500,TraesCS6A03G0649500,TraesCS6A03G0684200,TraesCS6A03G0965900,TraesCS6B03G0776100,TraesCS6B03G0794300,TraesCS6B03G0945500,TraesCS6D03G0538900,TraesCS6D03G0573300,TraesCS6D03G0845500,TraesCS7D03G0408700</t>
   </si>
   <si>
+    <t>TraesCS2B03G0731200,TraesCS2B03G1341500,TraesCS3A03G0966500,TraesCS3B03G0861400</t>
+  </si>
+  <si>
     <t>TraesCS1A03G0427500,TraesCS1A03G0793500,TraesCS1B03G0516300,TraesCS1B03G0911600,TraesCS1D03G0049400,TraesCS1D03G0402900,TraesCS1D03G0612500,TraesCS2A03G1052500,TraesCS2A03G1162800,TraesCS2B03G0806600,TraesCS2B03G1177400,TraesCS2D03G0861600,TraesCS3D03G0867400,TraesCS5A03G0388600,TraesCS5B03G0387000,TraesCS5D03G0377000,TraesCS5D03G1067600</t>
   </si>
   <si>
     <t>TraesCS1A03G0053300,TraesCS1D03G0043400,TraesCS2A03G1032100,TraesCS2A03G1032300,TraesCS2B03G0731200,TraesCS2B03G1153200,TraesCS2B03G1214600,TraesCS2D03G0971100,TraesCS2D03G0971700,TraesCS2D03G0971800,TraesCS2D03G1025100,TraesCS3A03G0756500,TraesCS3A03G1224100,TraesCS3A03G1224300,TraesCS3A03G1226700,TraesCS3B03G0864600,TraesCS3B03G1268400,TraesCS3B03G1464500,TraesCS3B03G1464600,TraesCS3D03G0655200,TraesCS3D03G0697200,TraesCS3D03G0733600,TraesCS3D03G1163500,TraesCS3D03G1163600,TraesCS3D03G1163700,TraesCS4A03G0657600,TraesCS4D03G0118100,TraesCS6B03G0167500</t>
   </si>
   <si>
-    <t>TraesCS2A03G0858200,TraesCS2A03G0860100,TraesCS3B03G1405100,TraesCS3D03G1197600,TraesCS5D03G1173000,TraesCS7B03G0854100</t>
-  </si>
-  <si>
     <t>TraesCS1A03G0090500,TraesCS1A03G0737600,TraesCS1B03G0694400,TraesCS1B03G0976000,TraesCS1B03G1050300,TraesCS1D03G0080500,TraesCS1D03G0080700,TraesCS1D03G0632200,TraesCS1D03G0856400,TraesCS2B03G0580400,TraesCS2B03G0857900,TraesCS2D03G0899800,TraesCS3D03G0317600,TraesCS4A03G0678100,TraesCS4B03G0117000,TraesCS4B03G0567900,TraesCS5A03G0835700,TraesCS5A03G0846400,TraesCS5B03G0772400,TraesCS5B03G0873600,TraesCS5B03G0873700,TraesCS5B03G0875800,TraesCS5B03G0888500,TraesCS5D03G0699000,TraesCS6A03G0197200,TraesCS6B03G0111200,TraesCS6B03G0111300,TraesCS6B03G0186000,TraesCS6D03G0078800,TraesCS6D03G0079300,TraesCS6D03G0079600,TraesCS6D03G0079800,TraesCS6D03G0079900,TraesCS6D03G0096000,TraesCS6D03G0132400,TraesCS7A03G1189700,TraesCS7D03G1129400,TraesCSU03G0110400,TraesCSU03G0110600</t>
   </si>
   <si>
@@ -157,7 +157,7 @@
     <t>TraesCS1A03G0190000,TraesCS1A03G0483700,TraesCS3D03G0599100,TraesCS4B03G0998900,TraesCS6B03G0776100,TraesCS6B03G0945500,TraesCS6D03G0538900</t>
   </si>
   <si>
-    <t>TraesCS2B03G0731200,TraesCS2B03G1341500,TraesCS3A03G0966500,TraesCS3B03G0861400</t>
+    <t>TraesCS2A03G1051500,TraesCS2B03G1176500,TraesCS2D03G0992400</t>
   </si>
 </sst>
 </file>
@@ -561,16 +561,16 @@
         <v>23</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D2">
-        <v>23.26</v>
+        <v>23.38</v>
       </c>
       <c r="E2">
         <v>0.0009</v>
       </c>
       <c r="F2">
-        <v>0.01630588235294118</v>
+        <v>0.0154</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -593,16 +593,16 @@
         <v>24</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>22.47</v>
+        <v>23.26</v>
       </c>
       <c r="E3">
         <v>0.0009</v>
       </c>
       <c r="F3">
-        <v>0.01630588235294118</v>
+        <v>0.0154</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -628,13 +628,13 @@
         <v>32</v>
       </c>
       <c r="D4">
-        <v>19.05</v>
+        <v>19.5</v>
       </c>
       <c r="E4">
         <v>0.0009</v>
       </c>
       <c r="F4">
-        <v>0.01630588235294118</v>
+        <v>0.0154</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -660,13 +660,13 @@
         <v>13</v>
       </c>
       <c r="D5">
-        <v>16.6</v>
+        <v>16.17</v>
       </c>
       <c r="E5">
         <v>0.0009</v>
       </c>
       <c r="F5">
-        <v>0.01630588235294118</v>
+        <v>0.0154</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -692,13 +692,13 @@
         <v>15</v>
       </c>
       <c r="D6">
-        <v>13.8</v>
+        <v>14.3</v>
       </c>
       <c r="E6">
         <v>0.0009</v>
       </c>
       <c r="F6">
-        <v>0.01630588235294118</v>
+        <v>0.0154</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -724,13 +724,13 @@
         <v>33</v>
       </c>
       <c r="D7">
-        <v>11.45</v>
+        <v>11.44</v>
       </c>
       <c r="E7">
         <v>0.0009</v>
       </c>
       <c r="F7">
-        <v>0.01630588235294118</v>
+        <v>0.0154</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -750,19 +750,19 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>28</v>
       </c>
       <c r="D8">
-        <v>8.9</v>
+        <v>8.94</v>
       </c>
       <c r="E8">
         <v>0.0009</v>
       </c>
       <c r="F8">
-        <v>0.01630588235294118</v>
+        <v>0.0154</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -782,19 +782,19 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>7.91</v>
+        <v>8.08</v>
       </c>
       <c r="E9">
         <v>0.0009</v>
       </c>
       <c r="F9">
-        <v>0.01630588235294118</v>
+        <v>0.0154</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -814,19 +814,19 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>6.64</v>
+        <v>7.87</v>
       </c>
       <c r="E10">
         <v>0.0009</v>
       </c>
       <c r="F10">
-        <v>0.01630588235294118</v>
+        <v>0.0154</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -846,19 +846,19 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>5.63</v>
+        <v>6.58</v>
       </c>
       <c r="E11">
         <v>0.0009</v>
       </c>
       <c r="F11">
-        <v>0.01630588235294118</v>
+        <v>0.0154</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -884,13 +884,13 @@
         <v>39</v>
       </c>
       <c r="D12">
-        <v>5.06</v>
+        <v>5.03</v>
       </c>
       <c r="E12">
         <v>0.0009</v>
       </c>
       <c r="F12">
-        <v>0.01630588235294118</v>
+        <v>0.0154</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -916,13 +916,13 @@
         <v>10</v>
       </c>
       <c r="D13">
-        <v>3.55</v>
+        <v>3.58</v>
       </c>
       <c r="E13">
         <v>0.0009</v>
       </c>
       <c r="F13">
-        <v>0.01630588235294118</v>
+        <v>0.0154</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -942,19 +942,19 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14">
-        <v>21.51</v>
+        <v>25.64</v>
       </c>
       <c r="E14">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="F14">
-        <v>0.04863157894736842</v>
+        <v>0.0308</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -980,13 +980,13 @@
         <v>4</v>
       </c>
       <c r="D15">
-        <v>17.47</v>
+        <v>16.88</v>
       </c>
       <c r="E15">
         <v>0.0009</v>
       </c>
       <c r="F15">
-        <v>0.01630588235294118</v>
+        <v>0.0154</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -1003,22 +1003,22 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>7</v>
       </c>
       <c r="D16">
-        <v>15.66</v>
+        <v>16.24</v>
       </c>
       <c r="E16">
         <v>0.0009</v>
       </c>
       <c r="F16">
-        <v>0.01630588235294118</v>
+        <v>0.0154</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -1035,22 +1035,22 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17">
         <v>14</v>
       </c>
       <c r="D17">
-        <v>13.82</v>
+        <v>13.94</v>
       </c>
       <c r="E17">
         <v>0.0009</v>
       </c>
       <c r="F17">
-        <v>0.01630588235294118</v>
+        <v>0.0154</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -1076,13 +1076,13 @@
         <v>9</v>
       </c>
       <c r="D18">
-        <v>6.37</v>
+        <v>6.27</v>
       </c>
       <c r="E18">
         <v>0.0009</v>
       </c>
       <c r="F18">
-        <v>0.01630588235294118</v>
+        <v>0.0154</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -1108,13 +1108,13 @@
         <v>7</v>
       </c>
       <c r="D19">
-        <v>3.86</v>
+        <v>4.05</v>
       </c>
       <c r="E19">
         <v>0.0009</v>
       </c>
       <c r="F19">
-        <v>0.01630588235294118</v>
+        <v>0.0154</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -1131,22 +1131,22 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>8.6</v>
+        <v>7.43</v>
       </c>
       <c r="E20">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F20">
-        <v>0.01711111111111111</v>
+        <v>0.0308</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
